--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Saar</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Babyhug</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -380,27 +386,42 @@
     <col min="1" max="1" width="95.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
